--- a/materials/Class topics list.xlsx
+++ b/materials/Class topics list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14dd4ef2642f5a57/Documents/GitHub/statistics/materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{E73F47F4-22DE-48B0-81B6-4F0E651735CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4F27DEA5-7508-45A1-9F3D-78EAD0F58284}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="8_{E73F47F4-22DE-48B0-81B6-4F0E651735CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A73398DC-1533-4C1E-93CF-D63A7FDCBB19}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="264" windowWidth="19572" windowHeight="11724" activeTab="1" xr2:uid="{E893377E-1735-47F4-8D18-61781B337071}"/>
+    <workbookView xWindow="2160" yWindow="144" windowWidth="19572" windowHeight="11724" xr2:uid="{E893377E-1735-47F4-8D18-61781B337071}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics Concepts" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="195">
   <si>
     <t>chapter</t>
   </si>
@@ -233,6 +233,390 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9f2g7RN5N0I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kn83BA7cRNM&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4yfNi_8Kqw&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1A5N4LJ6cCY&amp;index=7&amp;list=PLjgj6kdf_snZv7dk0ktMm7Ch9RFajwKHb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qglM-L52cB0&amp;list=PLjgj6kdf_snZv7dk0ktMm7Ch9RFajwKHb&amp;index=9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eW3Ehz-BFJo&amp;list=PLjgj6kdf_snZv7dk0ktMm7Ch9RFajwKHb&amp;index=8</t>
+  </si>
+  <si>
+    <t>good graphs</t>
+  </si>
+  <si>
+    <t>lies</t>
+  </si>
+  <si>
+    <t>SPSS chart builder</t>
+  </si>
+  <si>
+    <t>histograms</t>
+  </si>
+  <si>
+    <t>boxplots</t>
+  </si>
+  <si>
+    <t>bar charts</t>
+  </si>
+  <si>
+    <t>line charts</t>
+  </si>
+  <si>
+    <t>scatterplots</t>
+  </si>
+  <si>
+    <t>editing graphs (SPSS)</t>
+  </si>
+  <si>
+    <t>what is bias</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>overview of assumptions</t>
+  </si>
+  <si>
+    <t>additivity and livearity</t>
+  </si>
+  <si>
+    <t>normality</t>
+  </si>
+  <si>
+    <t>central limit theorem</t>
+  </si>
+  <si>
+    <t>when normality matters</t>
+  </si>
+  <si>
+    <t>homogeneity of variance</t>
+  </si>
+  <si>
+    <t>independence</t>
+  </si>
+  <si>
+    <t>spotting outliers</t>
+  </si>
+  <si>
+    <t>spotting normality - graphs</t>
+  </si>
+  <si>
+    <t>spotting normality - numbers</t>
+  </si>
+  <si>
+    <t>ks statistic</t>
+  </si>
+  <si>
+    <t>normality in groups</t>
+  </si>
+  <si>
+    <t>spotting linearity and homogeneity of variance</t>
+  </si>
+  <si>
+    <t>reducing bias</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hEWY6kkBdpo&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HMkllhBI91Y&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=7</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bPFNxD3Yg6U&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=8</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>barcharts</t>
+  </si>
+  <si>
+    <t>histotrams</t>
+  </si>
+  <si>
+    <t>qplot</t>
+  </si>
+  <si>
+    <t>working directory</t>
+  </si>
+  <si>
+    <t>subset</t>
+  </si>
+  <si>
+    <t>data exploration</t>
+  </si>
+  <si>
+    <t>data manipulation in dataframe</t>
+  </si>
+  <si>
+    <t>R scripts</t>
+  </si>
+  <si>
+    <t>R notebooks</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>SPINE of statistics</t>
+  </si>
+  <si>
+    <t>statistical models</t>
+  </si>
+  <si>
+    <t>populations and samples</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>mean as model</t>
+  </si>
+  <si>
+    <t>fit of model - sum of squares variance</t>
+  </si>
+  <si>
+    <t>estimating with models introduction</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>confidence interval</t>
+  </si>
+  <si>
+    <t>calculating confidence interval</t>
+  </si>
+  <si>
+    <t>calculating other confidence interval</t>
+  </si>
+  <si>
+    <t>confidence interval small samples (t)</t>
+  </si>
+  <si>
+    <t>confidence intervals visual</t>
+  </si>
+  <si>
+    <t>null hypothesis significance testing</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>null and alternative hypotheses</t>
+  </si>
+  <si>
+    <t>NHST process</t>
+  </si>
+  <si>
+    <t>test statistics</t>
+  </si>
+  <si>
+    <t>one-tailed and two-tailed tests</t>
+  </si>
+  <si>
+    <t>Type 1 and Type 2 error</t>
+  </si>
+  <si>
+    <t>inflated error rates</t>
+  </si>
+  <si>
+    <t>statistical power</t>
+  </si>
+  <si>
+    <t>confidence intervals statistical sig.</t>
+  </si>
+  <si>
+    <t>sample size and statistical significance</t>
+  </si>
+  <si>
+    <t>reporting significance tests</t>
+  </si>
+  <si>
+    <t>problems with NHST</t>
+  </si>
+  <si>
+    <t>misconceptions statistical significance</t>
+  </si>
+  <si>
+    <t>all-or-nothing thinking</t>
+  </si>
+  <si>
+    <t>NHST influenced by intentions</t>
+  </si>
+  <si>
+    <t>NHST problems with science</t>
+  </si>
+  <si>
+    <t>incentive structures and publication bias</t>
+  </si>
+  <si>
+    <t>bias of favorability of results</t>
+  </si>
+  <si>
+    <t>p-hacking</t>
+  </si>
+  <si>
+    <t>EMBERS</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>pre-registering</t>
+  </si>
+  <si>
+    <t>effect size</t>
+  </si>
+  <si>
+    <t>Cohen's d</t>
+  </si>
+  <si>
+    <t>Pearson's r</t>
+  </si>
+  <si>
+    <t>odds ratio</t>
+  </si>
+  <si>
+    <t>effect sizes compared to NHST</t>
+  </si>
+  <si>
+    <t>meta-analysis</t>
+  </si>
+  <si>
+    <t>Bayesian approaches</t>
+  </si>
+  <si>
+    <t>Bayesian statistics and NHST</t>
+  </si>
+  <si>
+    <t>Bayes theorem</t>
+  </si>
+  <si>
+    <t>priors on parameters</t>
+  </si>
+  <si>
+    <t>Bayes factors</t>
+  </si>
+  <si>
+    <t>benefits of Bayesian approaches</t>
+  </si>
+  <si>
+    <t>reporting effect sizes and Bayes factors</t>
+  </si>
+  <si>
+    <t>modeling relationships</t>
+  </si>
+  <si>
+    <t>covariance</t>
+  </si>
+  <si>
+    <t>significance of coorelation coefficient</t>
+  </si>
+  <si>
+    <t>standardization and coorelation coefficient</t>
+  </si>
+  <si>
+    <t>confidence intervals for r</t>
+  </si>
+  <si>
+    <t>data entry for r</t>
+  </si>
+  <si>
+    <t>bivariate correlation</t>
+  </si>
+  <si>
+    <t>correlation in SPSS</t>
+  </si>
+  <si>
+    <t>Pearson's r in SPSS</t>
+  </si>
+  <si>
+    <t>Spearman's correlation</t>
+  </si>
+  <si>
+    <t>Kendall's tau</t>
+  </si>
+  <si>
+    <t>biserial and point biserial correlations</t>
+  </si>
+  <si>
+    <t>partial and semi-partial correlations</t>
+  </si>
+  <si>
+    <t>partial correlations</t>
+  </si>
+  <si>
+    <t>partial correlations SPSS</t>
+  </si>
+  <si>
+    <t>comparing correlations</t>
+  </si>
+  <si>
+    <t>comparing dependent correlations</t>
+  </si>
+  <si>
+    <t>comparing correlations SPSS</t>
+  </si>
+  <si>
+    <t>calculating effect size</t>
+  </si>
+  <si>
+    <t>report correlation coefficient</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yLWgXMdCHT4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uAxyI_XfqXk&amp;index=19&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rBjft49MAO8&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3UPYpOLeRJg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yDEvXB6ApWc&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9jTJD5SLweY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dl0CXDsTYjk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bf3egy7TQ2Q&amp;index=22&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PPD8lER8ju4&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WWagtGT1zH4&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=24</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QZ7kgmhdIwA&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=27</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cm0vFoGVMB8&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=29</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gx0fAjNHb1M&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=31</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QBONLUp7i28</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-ZU7fbvSJ60</t>
   </si>
 </sst>
 </file>
@@ -595,16 +979,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE872A50-0675-4833-A5B7-3FC7448F17E0}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -910,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -927,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -944,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -958,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -975,10 +1359,13 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -992,10 +1379,13 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1009,10 +1399,13 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1026,10 +1419,22 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1045,8 +1450,11 @@
       <c r="E24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1063,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1077,7 +1485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1091,7 +1499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1105,7 +1513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1119,7 +1527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1136,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1153,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1165,6 +1573,2001 @@
       </c>
       <c r="E32">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>2.1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>6.1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>6.2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>10.1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>10.3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>10.4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>5.2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>8.1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>8.4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>9.1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>9.4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>9.5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>9.6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>9.9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>9.1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2.1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>3.1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>3.2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>3.3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>7.1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>7.2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>7.3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>7.4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>7.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>8.1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C115" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C116" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>8.4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>8.5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>2.1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C126" t="s">
+        <v>163</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>2.4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>4.2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>4.3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>4.5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>5.2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>5.3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>8</v>
+      </c>
+      <c r="B139">
+        <v>6.1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>6.2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>6.3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1175,27 +3578,61 @@
     <hyperlink ref="G9" r:id="rId4" xr:uid="{5FD1687F-2025-4FDD-B598-36F74E672D2E}"/>
     <hyperlink ref="H9" r:id="rId5" xr:uid="{CEAD6889-F09F-4137-A21B-BAC970C022A6}"/>
     <hyperlink ref="I9" r:id="rId6" xr:uid="{DBE65CD8-478C-4948-81BE-5125C1E4A80C}"/>
+    <hyperlink ref="F20" r:id="rId7" xr:uid="{61573222-CF4F-49D0-B8E4-C827A0997E61}"/>
+    <hyperlink ref="F21" r:id="rId8" xr:uid="{4392620D-7BEA-42D6-B188-62379158F5CA}"/>
+    <hyperlink ref="F22" r:id="rId9" xr:uid="{CEC41DDA-50AF-47A3-973C-C4229561D68F}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{B595BB55-FC26-4EAB-B475-B0A4FE9C35B3}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{BBE67437-A8E7-4A5F-9E3B-207517BB82E5}"/>
+    <hyperlink ref="H23" r:id="rId12" xr:uid="{0FD797E5-41D9-4FC0-BD5E-4DEA9ED82B57}"/>
+    <hyperlink ref="I23" r:id="rId13" xr:uid="{C49F4538-8AE0-4896-B9D6-A1BFF65E0FCF}"/>
+    <hyperlink ref="F39" r:id="rId14" xr:uid="{3F037820-C1B1-4B26-8667-D9D72AE09B22}"/>
+    <hyperlink ref="F37" r:id="rId15" xr:uid="{CB1D2337-2D6C-4CFA-9D5D-8033A30E19B7}"/>
+    <hyperlink ref="G37" r:id="rId16" xr:uid="{4120E74B-5414-4369-A9A6-3EAC0BF1E4A8}"/>
+    <hyperlink ref="F38" r:id="rId17" xr:uid="{6F133479-3272-4ECC-9E4C-FF4C8186B75B}"/>
+    <hyperlink ref="F56" r:id="rId18" xr:uid="{AB7F5C74-EA60-4C0C-B4AE-04C88D9D6D92}"/>
+    <hyperlink ref="F51" r:id="rId19" xr:uid="{AC644031-14D3-4054-BCED-D1EC4E9DC903}"/>
+    <hyperlink ref="F69" r:id="rId20" xr:uid="{17B8AB61-03CF-4CAB-B3EA-30201A73236A}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{6C33B4B1-44FA-4B52-B607-81112717DAF4}"/>
+    <hyperlink ref="F74" r:id="rId22" xr:uid="{1DE170EB-BD4A-4A44-91F7-38320384ECC7}"/>
+    <hyperlink ref="F52" r:id="rId23" xr:uid="{83297075-F277-443B-8CE1-C5FD85563D87}"/>
+    <hyperlink ref="G74" r:id="rId24" xr:uid="{8B474D3F-E840-47B9-8CAE-78E539080F5B}"/>
+    <hyperlink ref="F75" r:id="rId25" xr:uid="{91B20EB8-6271-4CB4-A4E7-4103DA8CAADE}"/>
+    <hyperlink ref="F78" r:id="rId26" xr:uid="{EF757FF6-79ED-4FB0-AB5D-A084503E67AC}"/>
+    <hyperlink ref="G75" r:id="rId27" xr:uid="{2BE9A95B-4891-46E7-A668-FF06CE07603F}"/>
+    <hyperlink ref="H75" r:id="rId28" xr:uid="{18EBD0CD-CA7E-42B2-AC39-EA03DEA15CE5}"/>
+    <hyperlink ref="F81" r:id="rId29" xr:uid="{E9B5DFF6-FEA8-43A7-B27E-F166347B6AA8}"/>
+    <hyperlink ref="G81" r:id="rId30" xr:uid="{68BA65E3-70FA-4DD6-B828-D6A0C21F82A8}"/>
+    <hyperlink ref="F82" r:id="rId31" xr:uid="{0E026AAD-01EB-4DAE-9EE6-7BD9AB669DAD}"/>
+    <hyperlink ref="F86" r:id="rId32" xr:uid="{EFFCA378-4B10-4E96-A6E1-C2B808081270}"/>
+    <hyperlink ref="F84" r:id="rId33" xr:uid="{5B013EE7-11E6-4553-93BF-C5F90BD90305}"/>
+    <hyperlink ref="F108" r:id="rId34" xr:uid="{5E90A4BF-9331-45B5-8A23-8D7B00F06F88}"/>
+    <hyperlink ref="F103" r:id="rId35" xr:uid="{A1325DA0-CE09-4C9C-82FA-6B71003C3B6B}"/>
+    <hyperlink ref="F87" r:id="rId36" xr:uid="{8CA42FD1-A3B1-4810-8BF3-9881F0B9034A}"/>
+    <hyperlink ref="F88" r:id="rId37" xr:uid="{7A189643-9A1C-487E-89F6-E673F0DD64FE}"/>
+    <hyperlink ref="G88" r:id="rId38" xr:uid="{3DA2E87E-B0A2-496F-BCBC-B6FDA52D4803}"/>
+    <hyperlink ref="G90" r:id="rId39" xr:uid="{D256E87B-3805-4EB1-A60D-E2B23CCB823D}"/>
+    <hyperlink ref="F90" r:id="rId40" xr:uid="{07B68C89-49EB-4802-983E-FDF365391228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16132EC5-83FC-49B6-8D9C-527688C7C675}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1203,114 +3640,295 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{787DE60C-5D0C-4A56-894D-DF753FE1D9DE}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{AF2227C7-F507-4D35-85C4-5070EEE35DC9}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{92A5EF20-C9ED-4467-BE70-29B9CA47CF98}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{E0B3CB5C-9B16-4612-AF8E-5F2DEEC2FC42}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{50C547F3-437F-4BAE-BD39-8839ED50B3AB}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{71B7493D-925A-4B9B-9A01-C739E59933AE}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{FA0C462B-1990-40F0-B9BB-727E9A37842C}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{1730FFBE-60AF-4212-903A-73C4B026A108}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{20AA81BD-E3A9-4272-A508-BB9718A7B0DB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{787DE60C-5D0C-4A56-894D-DF753FE1D9DE}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{AF2227C7-F507-4D35-85C4-5070EEE35DC9}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{92A5EF20-C9ED-4467-BE70-29B9CA47CF98}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{E0B3CB5C-9B16-4612-AF8E-5F2DEEC2FC42}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{50C547F3-437F-4BAE-BD39-8839ED50B3AB}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{71B7493D-925A-4B9B-9A01-C739E59933AE}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{FA0C462B-1990-40F0-B9BB-727E9A37842C}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{1730FFBE-60AF-4212-903A-73C4B026A108}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{20AA81BD-E3A9-4272-A508-BB9718A7B0DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/materials/Class topics list.xlsx
+++ b/materials/Class topics list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="8_{E73F47F4-22DE-48B0-81B6-4F0E651735CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A73398DC-1533-4C1E-93CF-D63A7FDCBB19}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="8_{E73F47F4-22DE-48B0-81B6-4F0E651735CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B0DF0D07-B926-400E-ACED-BE79C52DB9F4}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="144" windowWidth="19572" windowHeight="11724" xr2:uid="{E893377E-1735-47F4-8D18-61781B337071}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="199">
   <si>
     <t>chapter</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-ZU7fbvSJ60</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oZCskBpHWyk&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9TDjifpGj-k&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=25</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=51bLRF02b4w&amp;list=PL8dPuuaLjXtNM_Y-bUAhblSAdWRnmBUcr&amp;index=26</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rL32SjaHq2A</t>
   </si>
 </sst>
 </file>
@@ -982,8 +994,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2909,6 +2921,9 @@
       <c r="E107">
         <v>4</v>
       </c>
+      <c r="F107" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -2998,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3014,8 +3029,17 @@
       <c r="E113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3032,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3049,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3066,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3082,8 +3106,11 @@
       <c r="E117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3099,8 +3126,11 @@
       <c r="E118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3117,7 +3147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3134,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3151,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3165,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>8</v>
       </c>
@@ -3182,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>8</v>
       </c>
@@ -3199,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>8</v>
       </c>
@@ -3216,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>8</v>
       </c>
@@ -3233,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8</v>
       </c>
@@ -3250,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>8</v>
       </c>
@@ -3612,9 +3642,15 @@
     <hyperlink ref="G88" r:id="rId38" xr:uid="{3DA2E87E-B0A2-496F-BCBC-B6FDA52D4803}"/>
     <hyperlink ref="G90" r:id="rId39" xr:uid="{D256E87B-3805-4EB1-A60D-E2B23CCB823D}"/>
     <hyperlink ref="F90" r:id="rId40" xr:uid="{07B68C89-49EB-4802-983E-FDF365391228}"/>
+    <hyperlink ref="F113" r:id="rId41" xr:uid="{96379318-387C-4BC6-ADA3-55A63819937B}"/>
+    <hyperlink ref="G113" r:id="rId42" xr:uid="{B799F74D-3B93-4141-AAD3-417CE8EC1E20}"/>
+    <hyperlink ref="H113" r:id="rId43" xr:uid="{F046129D-0488-41C4-8ECD-0D33CB603B5D}"/>
+    <hyperlink ref="F117" r:id="rId44" xr:uid="{F78F8779-18B8-45D8-8BCC-23BC05AA7021}"/>
+    <hyperlink ref="F118" r:id="rId45" xr:uid="{AF239781-A1EA-4477-841C-72E5EBACB57C}"/>
+    <hyperlink ref="F107" r:id="rId46" xr:uid="{0B9DC2E0-CC30-4760-9740-6DE698D2C5D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId47"/>
 </worksheet>
 </file>
 
